--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866986.55222755</v>
+        <v>2864609.925280185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8766690.560499739</v>
+        <v>8766690.560499741</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>97.89509996023119</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>31.42142266910951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>259.6580847920571</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866101</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>39.45885325319734</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172148</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432697</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>328.3883756506959</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172146</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893701</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763407</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695688</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>127.5379405516743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.533070999799</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218646</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218646</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218646</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>532.2278653236203</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
         <v>433.3439259698515</v>
@@ -4325,19 +4325,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218646</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218646</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,49 +4462,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>714.7112860448132</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>545.7751031169063</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>545.7751031169063</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>397.8620095345132</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>250.9720620366028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>82.9855973448814</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.34930177307</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.34930177307</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.34930177307</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>896.3597508750529</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>896.3597508750529</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829026</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886148</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818643</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251361</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331014</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.57067313004</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.10491486896</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893148</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>196.9593607670919</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576348</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>378.6078255973316</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>378.6078255973316</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6852901911619</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331015</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800308</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664334</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664334</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664334</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.052837714136</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.913505738324</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500112</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310611</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625325</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217523</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118697</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576348</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.927936255316</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S34" t="n">
-        <v>2318.136881002812</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T34" t="n">
-        <v>2098.535416025753</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U34" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V34" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.358531127103</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1037.368980229086</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>816.5764010855557</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,13 +7081,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7175,22 +7175,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>199.7516311504064</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019039</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184743</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431578</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187166</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328146</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>53.48834544997025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.989927336792</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283915</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.988328391</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380337</v>
@@ -26323,28 +26323,28 @@
         <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467445</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719619</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719638</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.368461719587</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719618</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="F4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719688</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>7507.368461719731</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.36846171968</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719676</v>
-      </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171978</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26454,7 +26454,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
-      <c r="C5" t="n">
-        <v>92937.77243984469</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984469</v>
-      </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-663443.9594244747</v>
       </c>
       <c r="C6" t="n">
-        <v>451307.8241514447</v>
+        <v>451307.8241514449</v>
       </c>
       <c r="D6" t="n">
         <v>451307.8241514449</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.60483408191</v>
+        <v>49745.86690864603</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586278</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331928</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.0464586284</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="J6" t="n">
-        <v>389660.8686486454</v>
+        <v>389626.1307232101</v>
       </c>
       <c r="K6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331926</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.0464586283</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297013</v>
+        <v>424624.0148042655</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.046458628</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586281</v>
+        <v>557231.3085331925</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>308.9809457814803</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>115.8300864860194</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>122.2722852802047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.47073239362365</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>127.7879678454305</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193762</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446741</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>41.34272502777316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.70941963095893</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.751381063403296e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.433019232978658e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>7.517303009959066e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110982</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33029,25 +33029,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432803</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.015880398027</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091734</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145971</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977087</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.575538331224</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066325</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
